--- a/excels/check/2_50.xlsx
+++ b/excels/check/2_50.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20400" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="13980" windowHeight="11910" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="length change1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <definedName name="_50_stepsNumber_change_1" localSheetId="0">'length change1'!$A$1:$R$82</definedName>
     <definedName name="_50_stepsNumber_change_2" localSheetId="1">'length change 2'!$A$1:$R$82</definedName>
     <definedName name="_50_stepsNumber_change_start" localSheetId="2">'lenght start change'!$A$1:$R$82</definedName>
-    <definedName name="_50_time_change_1" localSheetId="3">'time change 1'!$A$1:$P$82</definedName>
-    <definedName name="_50_time_change_2" localSheetId="4">'time change 2'!$A$1:$P$82</definedName>
+    <definedName name="_50_time_change_1" localSheetId="3">'time change 1'!$A$1:$Q$82</definedName>
+    <definedName name="_50_time_change_2" localSheetId="4">'time change 2'!$A$1:$R$82</definedName>
     <definedName name="_50_time_change_start" localSheetId="5">'time change start'!$A$1:$P$82</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="97">
   <si>
     <t>maze</t>
   </si>
@@ -496,8 +496,20 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="5">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -512,39 +524,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -13613,19 +13592,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="E43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="14.625" customWidth="1"/>
+    <col min="2" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13645,37 +13626,40 @@
         <v>86</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13694,38 +13678,41 @@
       <c r="F2">
         <v>0.63999962806701605</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>2.6649999618530198</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.1959991455078101</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.40699982643127</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2.35194969177246</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.4629983901977499</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3.18087577819824</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1.2930109500885001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1.1150097846984801</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.56301116943359297</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.526999711990356</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13744,38 +13731,41 @@
       <c r="F3">
         <v>0.64900207519531194</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>2.2370004653930602</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4.3340380191802899</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2.7880008220672599</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.83002257347106</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.5429999828338601</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2.5113723278045601</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.3070006370544398</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1.0300002098083401</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.95000076293945301</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.875998735427856</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13794,38 +13784,41 @@
       <c r="F4">
         <v>0.33399987220764099</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>1.3769993782043399</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.3180112838745099</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.3980002403259202</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3.7610108852386399</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.91499924659729004</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1.9410026073455799</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1.37898874282836</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.33299875259399397</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.32299828529357</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.386997699737548</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13844,38 +13837,41 @@
       <c r="F5">
         <v>0.233999729156494</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5">
         <v>2.84499883651733</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.6480004787445002</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.3662703037261901</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2.6950390338897701</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.46899962425231</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.1170003414153999</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2.9629995822906401</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1.1909997463226301</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.1550097465515099</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.451999902725219</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13894,38 +13890,41 @@
       <c r="F6">
         <v>0.66005277633666903</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>4.0110001564025799</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.83598685264587</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2.56302809715271</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.5580141544342001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.52700066566467</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.5230126380920401</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1.8320107460021899</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>3.0919997692108101</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.1669957637786801</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1.13001108169555</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13944,38 +13943,41 @@
       <c r="F7">
         <v>5.0009982585906902</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
         <v>1.05399966239929</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2.0890121459960902</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.97965359687805</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.1250023841857901</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5.0009963512420601</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.0640022754669101</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.05301094055175</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.82299995422363204</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.75299978256225497</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5.0000107288360596</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13994,38 +13996,41 @@
       <c r="F8">
         <v>5.0000026226043701</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <v>2.1530025005340501</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.4170002937316799</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.5990285873412999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.74514555931091</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5.0000011920928902</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.26141357421875</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.4499874114990201</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.79199910163879395</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.18399977684021</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5.0001492500305096</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14044,38 +14049,41 @@
       <c r="F9">
         <v>5.0009982585906902</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9">
         <v>3.25900077819824</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.68301248550414995</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.58099961280822</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2.2339348793029701</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5.0004427433013898</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.85051321983337</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.8729987144470199</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1.2960000038146899</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.80101275444030695</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>5.0007600784301696</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14094,38 +14102,41 @@
       <c r="F10">
         <v>5.0010006427764804</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
         <v>3.27699875831604</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.7310204505920401</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.29000067710876</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5.0009887218475297</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.0009994506835902</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2.8590126037597599</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.248999118804931</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.87999892234802202</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>5.0000011920928902</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5.0000233650207502</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14144,38 +14155,41 @@
       <c r="F11">
         <v>0.470999956130981</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>1.81600093841552</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.68299984931945</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.88300013542175</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2.60772275924682</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.0979988574981601</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.91201853752136197</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.99999880790710405</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2.1490015983581499</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.76699972152709905</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.66999864578247004</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14194,38 +14208,41 @@
       <c r="F12">
         <v>0.19999933242797799</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
         <v>2.38000059127807</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.8570058345794598</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.17401075363159</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.26399946212768</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.0569994449615401</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.59499931335449197</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.3170001506805402</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1.25599694252014</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.7909996509552</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.43700027465820301</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14244,38 +14261,41 @@
       <c r="F13">
         <v>0.32000017166137601</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <v>2.1659979820251398</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.4750168323516801</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.64701128005981</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.03601145744323</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.92399883270263605</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3.0048847198486301</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.58401250839233398</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3.2700107097625701</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.93599963188171298</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.78599834442138605</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14294,38 +14314,41 @@
       <c r="F14">
         <v>0.55899930000305098</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
         <v>1.66899967193603</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4.4320266246795601</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.95013427734375</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1.65101838111877</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.1769998073577801</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.54206752777099598</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1.41199922561645</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.93199968338012695</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.43199682235717701</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.815998554229736</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14344,38 +14367,41 @@
       <c r="F15">
         <v>1.86599993705749</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15">
         <v>1.0960001945495601</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.3191003799438401</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.0769987106323198</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2.0229229927062899</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.4580099582672101</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.25900053977966297</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.39899778366088</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.69001221656799305</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.77199888229370095</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2.2840001583099299</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14394,38 +14420,41 @@
       <c r="F16">
         <v>5.0000009536743102</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
         <v>2.6200027465820299</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.5590002536773602</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.2529125213623</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.83138751983642</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5.0009999275207502</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.89981102943420399</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2.1820001602172798</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.1260011196136399</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.93499684333801203</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>5.0000002384185702</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14444,38 +14473,41 @@
       <c r="F17">
         <v>5.0000014305114702</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17">
         <v>2.99300193786621</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3.08499884605407</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.66898918151855</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.0000121593475297</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5.0000023841857901</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.29099965095519997</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.288013696670532</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.86701178550720204</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.87699913978576605</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>5.0000114440917898</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14494,38 +14526,41 @@
       <c r="F18">
         <v>5.0010004043579102</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18">
         <v>3.2669992446899401</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3.7830011844635001</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5.0006036758422798</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.0699996948242101</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5.0000014305114702</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2.6259994506835902</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2.3040006160736</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1.5150022506713801</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.33600020408630299</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>5.0003104209899902</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14544,38 +14579,41 @@
       <c r="F19">
         <v>5.0010008811950604</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19">
         <v>2.7370109558105402</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.17399930953979</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5.0006167888641304</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5.0007152557373002</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.0000014305114702</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1.9175543785095199</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.89100003242492598</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.49599862098693798</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>5.0000114440917898</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>5.0000004768371502</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14594,38 +14632,41 @@
       <c r="F20">
         <v>0.60301160812377896</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
         <v>3.9304969310760498</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>3.6050138473510698</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1.73225569725036</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.1759994029998699</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.45900082588195</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.35821080207824701</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.3890106678009</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1.3630113601684499</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.73901152610778797</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.95199823379516602</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14644,38 +14685,41 @@
       <c r="F21">
         <v>0.31699919700622498</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21">
         <v>3.3119983673095699</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2.7449998855590798</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>2.8327441215515101</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.94101190567016602</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.44599986076354</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.78731083869934004</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.22901010513305</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1.0719897747039699</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2.2049899101257302</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.66599845886230402</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14694,38 +14738,41 @@
       <c r="F22">
         <v>0.57001137733459395</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22">
         <v>2.9840006828308101</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3.3079986572265598</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.2730004787445002</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.8260021209716699</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2.1299989223480198</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.96903872489929199</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2.5069882869720401</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.51401066780090299</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.44201111793518</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.53199934959411599</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14744,38 +14791,41 @@
       <c r="F23">
         <v>0.23399949073791501</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23">
         <v>2.61399841308593</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.0829977989196702</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.0074548721313401</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1.1249871253967201</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2.1230101585388099</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.37399816513061501</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1.56599521636962</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>3.2430129051208398</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2.1369996070861799</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.66799807548522905</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14794,38 +14844,41 @@
       <c r="F24">
         <v>2.7400012016296298</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
         <v>5.0009999275207502</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.6699988842010498</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.78137803077697</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2.7030127048492401</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2.29899907112121</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.4669988155364899</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.0299990177154501</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1.06799983978271</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.37499952316284102</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1.7630009651184</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14844,38 +14897,41 @@
       <c r="F25">
         <v>5.0001494884490896</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25">
         <v>3.2370016574859601</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.9079966545104901</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2.0941631793975799</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.89300179481506303</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5.0009994506835902</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.0419998168945299</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2.7340118885040199</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1.1009986400604199</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.81699943542480402</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>5.0010008811950604</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14894,38 +14950,41 @@
       <c r="F26">
         <v>5.0009992122650102</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26">
         <v>1.5500011444091699</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.0500121116638099</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.95982480049133301</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>3.60799980163574</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5.0009984970092702</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.66133856773376398</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2.44900178909301</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.6809995174407899</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.213998317718505</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>5.0000143051147399</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14944,38 +15003,41 @@
       <c r="F27">
         <v>5.0007660388946498</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27">
         <v>3.3060004711151101</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4.0749986171722403</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3.0410275459289502</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.6260123252868599</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5.0010006427764804</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.98120021820068</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.26599979400634699</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.63101172447204501</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>5.0000083446502597</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>5.0000002384185702</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14994,38 +15056,41 @@
       <c r="F28">
         <v>5.0009984970092702</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28">
         <v>2.3359997272491402</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.6130280494689901</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5.00001740455627</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5.0001471042633003</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5.0000002384185702</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.49002432823181</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.47500014305114702</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.3489899635314899</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>5.0009984970092702</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5.0010004043579102</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -15044,38 +15109,41 @@
       <c r="F29">
         <v>0.63899993896484297</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29">
         <v>1.1270012855529701</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.8060014247894198</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.3650138378143302</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3.29999828338623</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2.6282918453216499</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.2529981136321999</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.54300665855407</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.99999976158142001</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.31700015068054</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.41200017929077098</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -15094,38 +15162,41 @@
       <c r="F30">
         <v>0.42900180816650302</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30">
         <v>3.5559990406036301</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.53199934959411</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.5510003566741899</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.3040211200714098</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.0250003337860101</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.42799973487853998</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.8109991550445499</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.26399970054626</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.42900037765502</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.18399906158447</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -15144,38 +15215,41 @@
       <c r="F31">
         <v>0.29201221466064398</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31">
         <v>1.4840016365051201</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.5130264759063698</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.8370347023010201</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2.8053638935089098</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.8540005683898899</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.0439970493316599</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.84299969673156705</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.42701196670532</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.9310121536254801</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.83401012420654297</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -15194,38 +15268,41 @@
       <c r="F32">
         <v>0.37100028991699202</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32">
         <v>1.48500132560729</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.52617979049682</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>3.7920005321502601</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1.90698313713073</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1.8490011692047099</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2.2560124397277801</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.4179999828338601</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2.11199903488159</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.34099864959716703</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.84300041198730402</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -15244,38 +15321,41 @@
       <c r="F33">
         <v>3.8850014209747301</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33">
         <v>2.7869970798492401</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>1.87201046943664</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3.07400155067443</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.72054696083068</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>3.50200271606445</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>1.23100137710571</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>2.1610007286071702</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>1.7719988822937001</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.61900067329406705</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2.0470120906829798</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -15294,38 +15374,41 @@
       <c r="F34">
         <v>5.0000004768371502</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34">
         <v>2.8920018672943102</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.9799888134002601</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>3.06400299072265</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>2.4868171215057302</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>5.0009987354278502</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1.1730103492736801</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>4.2800004482269198</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.65701127052307096</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.71501231193542403</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>5.0010030269622803</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -15344,38 +15427,41 @@
       <c r="F35">
         <v>5.0009996891021702</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35">
         <v>2.0749967098236</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1.71899962425231</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.2439978122711102</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5.0009090900421098</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5.0000214576721103</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>1.5869891643524101</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1.8320000171661299</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.66100549697875899</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.85000014305114702</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>5.0000019073486301</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -15394,38 +15480,41 @@
       <c r="F36">
         <v>5.0004780292510898</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
         <v>1.9010024070739699</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.81300020217895</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2.4445714950561501</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>3.0199916362762398</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5.0009994506835902</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2.9249994754791202</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2.9989993572235099</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1.5730006694793699</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>5.0000007152557302</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>5.0009984970092702</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -15444,38 +15533,41 @@
       <c r="F37">
         <v>5.0009992122650102</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37">
         <v>2.73500180244445</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1.97699999809265</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1.3805558681487999</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>5.0000019073486301</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5.00050592422485</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.36399936676025302</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>1.74500012397766</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.91400051116943304</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>5.0000119209289497</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>5.0009863376617396</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -15494,38 +15586,41 @@
       <c r="F38">
         <v>1.2749998569488501</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38">
         <v>1.0320017337798999</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.1809990406036301</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>2.1120114326477002</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1.7930102348327599</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1.1760122776031401</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>2.52201223373413</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>1.19599962234497</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>1.1030113697052</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.58799958229064897</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.58600163459777799</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -15544,38 +15639,41 @@
       <c r="F39">
         <v>0.570012807846069</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39">
         <v>3.0420000553131099</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.2149994373321502</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>3.3879532814025799</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>2.1930148601531898</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1.6459932327270499</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>2.99200010299682</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>1.83099865913391</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>0.58999800682067804</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>0.76299953460693304</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>0.79199886322021396</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -15594,38 +15692,41 @@
       <c r="F40">
         <v>0.423011064529418</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40">
         <v>2.7719986438751198</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.31200003623962</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>1.82000112533569</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1.93000411987304</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>1.3639998435974099</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>1.51683545112609</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>1.5879995822906401</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>2.5870006084442099</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>1.0340111255645701</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>0.60300278663635198</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -15644,38 +15745,41 @@
       <c r="F41">
         <v>0.38898849487304599</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41">
         <v>1.94000148773193</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>1.1120121479034399</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>3.24601149559021</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>1.64200139045715</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>2.2340812683105402</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>2.3320000171661301</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>1.7179977893829299</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>0.85201168060302701</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>0.60599923133850098</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>1.01600861549377</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -15694,38 +15798,41 @@
       <c r="F42">
         <v>4.2711775302886901</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H42">
         <v>2.0459969043731601</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>3.0120000839233398</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1.8450112342834399</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2.0530006885528498</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>3.2373838424682599</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>1.6902997493743801</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2.3770117759704501</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>2.0099895000457701</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>1.07200002670288</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>2.2379992008209202</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -15744,38 +15851,41 @@
       <c r="F43">
         <v>5.0009989738464302</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43">
         <v>2.81799864768981</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1.16199803352355</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>3.5869884490966699</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>2.5439994335174498</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>5.0009911060333199</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>2.3289997577667201</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.80299139022827104</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>0.92100095748901301</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0.68501234054565396</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>5.0000121593475297</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -15794,38 +15904,41 @@
       <c r="F44">
         <v>5.0002713203430096</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H44">
         <v>2.70000123977661</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>3.1490027904510498</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2.4692606925964302</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>5.0000097751617396</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>5.0009989738464302</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>1.14700150489807</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.93399977684020996</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>2.1060116291046098</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>5.0009891986846897</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>5.0009994506835902</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -15844,38 +15957,41 @@
       <c r="F45">
         <v>5.0009999275207502</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45">
         <v>1.3639996051788299</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>2.9469997882843</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>3.2909984588622998</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>5.0009992122650102</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>5.0000100135803196</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>2.0980014801025302</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.73599910736083896</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>1.0680010318756099</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>5.0009996891021702</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>5.0009081363677899</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -15894,38 +16010,41 @@
       <c r="F46">
         <v>5.0009987354278502</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46">
         <v>3.2389996051788299</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>5.0009648799896196</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5.0007801055908203</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>5.0007026195526096</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5.0009989738464302</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>1.7060086727142301</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>1.22301054000854</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>0.67500972747802701</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>5.0000090599059996</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>5.0009994506835902</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -15944,38 +16063,41 @@
       <c r="F47">
         <v>0.98099994659423795</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47">
         <v>3.1890950202941801</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.98000073432922297</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>4.48001861572265</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>2.0269999504089302</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1.4350121021270701</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>3.1309998035430899</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>1.4160020351409901</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>1.1399896144866899</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>0.74201059341430597</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>1.1010215282440099</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -15994,38 +16116,41 @@
       <c r="F48">
         <v>0.556998491287231</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48">
         <v>1.5559995174407899</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>3.42700171470642</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>2.1645147800445499</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>3.48201084136962</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>1.7409980297088601</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>3.1698679924011199</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.51798963546752896</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>0.89401078224182096</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>1.55901074409484</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>0.77501153945922796</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -16044,38 +16169,41 @@
       <c r="F49">
         <v>0.37100148200988697</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49">
         <v>2.5920002460479701</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2.2799997329711901</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1.59400081634521</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>3.3971045017242401</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>1.9120004177093499</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>0.50099730491638095</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>1.4689967632293699</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>0.53898978233337402</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.82399916648864702</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>0.91100978851318304</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -16094,38 +16222,41 @@
       <c r="F50">
         <v>0.37999987602233798</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50">
         <v>3.2879891395568799</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2.2849988937377899</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1.45900225639343</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1.4299988746643</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>1.3330111503601001</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>1.90199899673461</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>2.9710109233856201</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>0.70899987220764105</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>1.3810114860534599</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>0.84900069236755304</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -16144,38 +16275,41 @@
       <c r="F51">
         <v>5.0000128746032697</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51">
         <v>2.8810019493103001</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.9980003833770701</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1.7180004119873</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>2.1069993972778298</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>3.3869993686675999</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>2.7540011405944802</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>1.1919977664947501</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>0.58901190757751398</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>1.1590001583099301</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>2.3070104122161799</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -16194,38 +16328,41 @@
       <c r="F52">
         <v>5.0009889602661097</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52">
         <v>1.2479996681213299</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2.5200021266937198</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>3.4809980392456001</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>2.1750123500823899</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>5.0008969306945801</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>1.7199997901916499</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>3.0230007171630802</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>1.5790092945098799</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>1.7789878845214799</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>5.0001840591430602</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -16244,38 +16381,41 @@
       <c r="F53">
         <v>5.0000007152557302</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53">
         <v>2.5820012092590301</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2.3500003814697199</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>4.4599430561065603</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>5.0000004768371502</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>5.0009889602661097</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>0.84501075744628895</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.94299793243408203</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>1.95498967170715</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>5.0000107288360596</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>5.0009982585906902</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -16294,38 +16434,41 @@
       <c r="F54">
         <v>5.0000100135803196</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54">
         <v>5.0001590251922599</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>3.8880465030670099</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>2.6700119972228999</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>5.0010004043579102</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>5.0000128746032697</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>0.81900072097778298</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>1.6360101699829099</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>5.0000019073486301</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>5.0000114440917898</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>5.0009982585906902</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -16344,38 +16487,41 @@
       <c r="F55">
         <v>5.0009884834289497</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>54</v>
+      </c>
+      <c r="H55">
         <v>5.0000309944152797</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.0009400844573904</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>5.0005617141723597</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>5.0000026226043701</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>5.0009882450103698</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>2.3612580299377401</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.74699044227600098</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>5.0009973049163801</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>5.0009994506835902</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>5.0009989738464302</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -16394,38 +16540,41 @@
       <c r="F56">
         <v>1.3140006065368599</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56">
         <v>0.53900051116943304</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>1.14999794960021</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>3.10301160812377</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>2.2279975414276101</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>1.8549985885620099</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0.60600042343139604</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>1.4309985637664699</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>1.8990008831024101</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>1.2619996070861801</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>0.79200005531311002</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -16444,38 +16593,41 @@
       <c r="F57">
         <v>0.90201187133788996</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57">
         <v>1.0850012302398599</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>2.6290283203125</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>2.9979910850524898</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1.73101758956909</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>2.2900006771087602</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>0.68401050567626898</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>0.82601118087768499</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>1.06999731063842</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>0.53699994087219205</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>0.58101248741149902</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -16494,38 +16646,41 @@
       <c r="F58">
         <v>0.409000873565673</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58">
         <v>2.67999911308288</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>2.4911007881164502</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>2.3130009174346902</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>2.4790005683898899</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>1.2700002193450901</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>1.0440025329589799</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>2.33000135421752</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>0.98999929428100497</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>1.1180119514465301</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>1.0750107765197701</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -16544,38 +16699,41 @@
       <c r="F59">
         <v>0.37700057029724099</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59">
         <v>3.0719978809356601</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>2.21899962425231</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>2.4819996356964098</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>2.8990406990051198</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>1.76399970054626</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>1.2469997406005799</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2.8779978752136199</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>1.9579999446868801</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>0.67999005317687899</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>0.66999912261962802</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -16594,38 +16752,41 @@
       <c r="F60">
         <v>4.6900005340576101</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60">
         <v>2.07699990272521</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>1.7789995670318599</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1.5149998664855899</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0.95699930191039995</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>3.29401230812072</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>0.35799932479858398</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>1.7750008106231601</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>1.06799888610839</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>1.0799975395202599</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>2.4310011863708398</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -16644,38 +16805,41 @@
       <c r="F61">
         <v>5.0006570816040004</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61">
         <v>1.60700106620788</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>1.9690010547637899</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>2.7789998054504301</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>1.6090002059936499</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>5.0000007152557302</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>1.5495958328246999</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>0.79200077056884699</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>1.7219986915588299</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>5.0009989738464302</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>5.0000183582305899</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -16694,38 +16858,41 @@
       <c r="F62">
         <v>5.0000023841857901</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62">
         <v>1.3659980297088601</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>4.6082615852355904</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>2.75604891777038</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>1.2939991950988701</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>5.0000026226043701</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>0.44400000572204501</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>1.40100169181823</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>1.5339987277984599</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>5.0009996891021702</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>5.0009992122650102</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -16744,38 +16911,41 @@
       <c r="F63">
         <v>5.0009982585906902</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63">
         <v>2.0580017566680899</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>3.6019983291625901</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>3.13026571273803</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>5.0009503364562899</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>5.0006902217864901</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>1.03599905967712</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.53001022338867099</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>0.34501290321350098</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>5.0009996891021702</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>5.0000369548797599</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -16794,38 +16964,41 @@
       <c r="F64">
         <v>5.0009999275207502</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64">
         <v>3.4789998531341499</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>4.01173996925354</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5.0005571842193604</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>5.0000479221343896</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>5.0009863376617396</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>0.52799987792968694</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>5.0009996891021702</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>5.0000109672546298</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>5.0000107288360596</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>5.0009994506835902</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -16844,38 +17017,41 @@
       <c r="F65">
         <v>0.80599856376647905</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65">
         <v>1.9710009098052901</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>2.7602250576019198</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1.9036002159118599</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2.4111263751983598</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>2.3472771644592201</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>2.8340003490447998</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>1.5559997558593699</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>1.3540124893188401</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>1.6889896392822199</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>0.50400972366332997</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -16894,38 +17070,41 @@
       <c r="F66">
         <v>0.48200106620788502</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66">
         <v>3.3060019016265798</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>1.4929881095886199</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>2.3659992218017498</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>3.07181525230407</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>1.40301465988159</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>1.2083542346954299</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>1.3980126380920399</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>1.7469885349273599</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>2.8489999771118102</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>0.63101100921630804</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -16944,38 +17123,41 @@
       <c r="F67">
         <v>0.49399971961975098</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67">
         <v>3.4210004806518501</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>2.0559992790222101</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>2.6770000457763601</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2.1360111236572199</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>2.21538162231445</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>0.87666630744934004</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>0.897999286651611</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>1.04099893569946</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>1.1480119228362999</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>0.64200091361999501</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -16994,38 +17176,41 @@
       <c r="F68">
         <v>0.39299941062927202</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68">
         <v>2.3979969024658199</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>2.0569972991943302</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>3.6797096729278498</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>2.9099895954132</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>1.29762887954711</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>0.627999067306518</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>2.3940002918243399</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>2.74600052833557</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>1.0039987564086901</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>0.824998378753662</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -17044,38 +17229,41 @@
       <c r="F69">
         <v>5.0000016689300502</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69">
         <v>3.48999667167663</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>3.28500008583068</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>3.2779996395111</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>1.6393394470214799</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>3.7539997100829998</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>2.3997955322265598</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>0.54601097106933505</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>1.5569994449615401</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>0.87801098823547297</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>2.57400131225585</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -17094,38 +17282,41 @@
       <c r="F70">
         <v>5.0000014305114702</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70">
         <v>2.49500179290771</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>3.1750004291534402</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>2.0570986270904501</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>5.0000004768371502</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>5.0000112056732098</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>0.29500007629394498</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>1.5659887790679901</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>0.94199705123901301</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>5.0009999275207502</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>5.0000119209289497</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -17144,38 +17335,41 @@
       <c r="F71">
         <v>5.0009999275207502</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71">
         <v>2.41000008583068</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>2.1329984664916899</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>2.4150118827819802</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>5.00001668930053</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>5.0000112056732098</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>1.42800068855285</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>1.8380012512207</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>1.6480028629302901</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>5.0009982585906902</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>5.0009994506835902</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -17194,38 +17388,41 @@
       <c r="F72">
         <v>5.0000016689300502</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72">
         <v>5.0000019073486301</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>3.0249986648559499</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5.0009291172027499</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>5.0009987354278502</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>5.0009858608245796</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>0.47699975967407199</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>1.80201292037963</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>5.0000002384185702</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>5.0000100135803196</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>5.0009980201721103</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -17244,38 +17441,41 @@
       <c r="F73">
         <v>5.0009984970092702</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73">
         <v>1.85000300407409</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>5.0000119209289497</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>5.0001583099365199</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>5.0010015964508003</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>5.0002596378326398</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>1.7687399387359599</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>5.0009877681732098</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>5.0009956359863201</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>5.0009992122650102</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>5.0000119209289497</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -17294,38 +17494,41 @@
       <c r="F74">
         <v>1.09499907493591</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+      <c r="H74">
         <v>2.7299985885620099</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>3.0609996318817099</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>4.0770912170410103</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>2.0460021495818999</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>1.17799973487854</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>2.4130332469940101</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>0.63700032234191895</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>1.22500252723693</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>1.6100099086761399</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>0.62899947166442804</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -17344,38 +17547,41 @@
       <c r="F75">
         <v>1.2610003948211601</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75">
         <v>2.9420018196105899</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>3.20901179313659</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>3.1467940807342498</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>2.0729997158050502</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>2.4119999408721902</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>1.28909039497375</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>1.4120011329650799</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>1.24600052833557</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>0.79300189018249501</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>0.507010698318481</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -17394,38 +17600,41 @@
       <c r="F76">
         <v>0.5</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76">
         <v>3.7110002040863002</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>2.2339878082275302</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>1.5830109119415201</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>2.0579993724822998</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>1.33200979232788</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>1.2219979763030999</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>1.0069987773895199</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>2.82199931144714</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>1.0649900436401301</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>0.81299996376037598</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -17444,38 +17653,41 @@
       <c r="F77">
         <v>0.41000008583068798</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77">
         <v>5.0000004768371502</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>1.96401214599609</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>4.5600094795226997</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>1.8199999332427901</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>1.94193816184997</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>0.75701093673705999</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>1.0690116882324201</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>2.3910009860992401</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>0.62300038337707497</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>0.80999970436096103</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -17494,38 +17706,41 @@
       <c r="F78">
         <v>5.0009989738464302</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78">
         <v>3.2500011920928902</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>2.1719915866851802</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>2.02599000930786</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>2.15700364112854</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>3.6909987926483101</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>0.93701148033142001</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>1.3760113716125399</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>1.05399942398071</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>1.1360113620757999</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>2.02100205421447</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -17544,38 +17759,41 @@
       <c r="F79">
         <v>5.0000007152557302</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="s">
+        <v>78</v>
+      </c>
+      <c r="H79">
         <v>2.86000227928161</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>1.9579999446868801</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>5.0000126361846897</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>3.5709969997406001</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>5.0000011920928902</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>1.77300024032592</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>1.5329992771148599</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>1.8610026836395199</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>5.0009915828704798</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>5.0009982585906902</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -17594,38 +17812,41 @@
       <c r="F80">
         <v>5.0010001659393302</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80">
         <v>2.53299832344055</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>5.0010001659393302</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>2.40000128746032</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>5.0005569458007804</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>5.0000023841857901</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>0.79899835586547796</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>2.3529999256134002</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>3.3370113372802699</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>5.0000097751617396</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>5.0010006427764804</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -17644,38 +17865,41 @@
       <c r="F81">
         <v>5.0000021457672101</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+      <c r="H81">
         <v>2.94299960136413</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>5.0009391307830802</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>5.0000977516174299</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>5.0009996891021702</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>5.0000028610229403</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>1.7589986324310301</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>0.98401236534118597</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>0.76998877525329501</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>5.0000016689300502</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>5.0000002384185702</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -17694,44 +17918,47 @@
       <c r="F82">
         <v>5.0009973049163801</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82">
         <v>3.7660009860992401</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>5.0000009536743102</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>5.0000021457672101</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>5.0009438991546604</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>5.0000011920928902</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>0.47699904441833402</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>1.6449882984161299</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>5.0000019073486301</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>5.0000109672546298</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>5.0000011920928902</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:17">
       <c r="B84">
         <f>AVERAGE(B2:B82)</f>
         <v>2.0324193872051457</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:P84" si="0">AVERAGE(C2:C82)</f>
+        <f t="shared" ref="C84:Q84" si="0">AVERAGE(C2:C82)</f>
         <v>2.7334583570927733</v>
       </c>
       <c r="D84">
@@ -17746,55 +17973,55 @@
         <f t="shared" si="0"/>
         <v>2.8813162703572952</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <f t="shared" si="0"/>
         <v>2.645219708666386</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <f t="shared" si="0"/>
         <v>2.6947868812231346</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <f t="shared" si="0"/>
         <v>2.8781946088060897</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <f t="shared" si="0"/>
         <v>2.8777707623846713</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <f t="shared" si="0"/>
         <v>3.2898132418408785</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <f t="shared" si="0"/>
         <v>1.4459415424017237</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <f t="shared" si="0"/>
         <v>1.6339890927444232</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <f t="shared" si="0"/>
         <v>1.6284092385091862</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <f t="shared" si="0"/>
         <v>2.204298775873065</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <f t="shared" si="0"/>
         <v>2.7773776289857448</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:P1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B1:F1048576 H1:Q1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:P84">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B84:F84 H84:Q84">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17804,19 +18031,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView topLeftCell="C46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="14.625" customWidth="1"/>
+    <col min="2" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+    <col min="8" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17835,38 +18066,38 @@
       <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17885,38 +18116,38 @@
       <c r="F2">
         <v>1.0130026340484599</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.2060034275054901</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.64803004264831499</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.4489991664886399</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1.8810012340545601</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.67900109291076605</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.59600090980529696</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.25201225280761702</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1.71899938583374</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1.0199992656707699</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.60600304603576605</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17935,38 +18166,38 @@
       <c r="F3">
         <v>0.85999703407287598</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.7140026092529199</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.21821737289428</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.7622015476226802</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2.9949994087219198</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1.8790009021759</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2.2730453014373699</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>2.4899866580963099</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>1.0389978885650599</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.62101197242736805</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.67001247406005804</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -17985,38 +18216,38 @@
       <c r="F4">
         <v>0.337998867034912</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.0480096340179399</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.2550122737884499</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2.9489991664886399</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2.0360019207000701</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1.8289990425109801</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>2.61799788475036</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>1.0020129680633501</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>1.4110107421875</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.57401013374328602</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.41100311279296797</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -18035,38 +18266,38 @@
       <c r="F5">
         <v>0.56100010871887196</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.3939974308013898</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.6896324157714799</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.3860006332397399</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.4580004215240401</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2.1770117282867401</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1.38135242462158</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1.84300017356872</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>1.8109991550445499</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.59699845314025801</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.45400619506835899</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -18085,38 +18316,38 @@
       <c r="F6">
         <v>1.5200297832489</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.3989987373352002</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.16817474365234</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.92399907112121504</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.95699882507324197</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1.46099877357482</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>2.1549875736236501</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.99199962615966797</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>2.0340125560760498</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1.65201187133789</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>2.15601205825805</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -18135,38 +18366,38 @@
       <c r="F7">
         <v>5.0009970664978001</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.6239998340606601</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.832999467849731</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.0399982929229701</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.88599848747253</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5.0009584426879803</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2.9269998073577801</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1.3919980525970399</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>0.66598987579345703</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.0879986286163299</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>5.0009865760803196</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18185,38 +18416,38 @@
       <c r="F8">
         <v>5.0009510517120299</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.1130001544952299</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.839019775390625</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.3980007171630802</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.21401166915893</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5.0004131793975803</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1.44200015068054</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1.7080001831054601</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0.90999913215637196</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.88200163841247503</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>5.00023937225341</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -18235,38 +18466,38 @@
       <c r="F9">
         <v>5.0009996891021702</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.6299977302551201</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.63000941276550204</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.75000047683715</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3.0810010433196999</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5.0000009536743102</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>2.78699779510498</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.70700001716613703</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.91699862480163497</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.736011981964111</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>5.0001585483550999</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -18285,38 +18516,38 @@
       <c r="F10">
         <v>5.0009980201721103</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.1059980392456001</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.0699508190154998</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.5249993801116899</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5.0002174377441397</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5.0000016689300502</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.229998588562011</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.99299979209899902</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0.55900049209594704</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>5.0000100135803196</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>5.0000116825103698</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -18335,38 +18566,38 @@
       <c r="F11">
         <v>0.54700160026550204</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.7020001411437899</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.54011797904968</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.2870001792907699</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.852999687194824</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1.23200035095214</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>1.9259991645812899</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>1.5209999084472601</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.78800225257873502</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>1.5199882984161299</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.40698623657226501</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -18385,38 +18616,38 @@
       <c r="F12">
         <v>0.237997531890869</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.5999994277954102</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.3739976882934499</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.25099992752075</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.1500084400177</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.25500035285949</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.87599778175354004</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>1.23400998115539</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>1.9520022869110101</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.67201042175292902</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.36601185798644997</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -18435,38 +18666,38 @@
       <c r="F13">
         <v>0.46701145172119102</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2.82699990272521</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.24699854850769001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.39399886131286</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1.2260422706603999</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.91799998283386197</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>2.0289998054504301</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>1.21901202201843</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>1.0740113258361801</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>1.0440092086791899</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.80498695373535101</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -18485,38 +18716,38 @@
       <c r="F14">
         <v>0.654987573623657</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.12826299667358</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2.22399854660034</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.1950120925903298</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2.89908576011657</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1.92499876022338</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>2.73299908638</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.83401083946228005</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>1.29099988937377</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1.13898944854736</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.80401206016540505</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -18535,38 +18766,38 @@
       <c r="F15">
         <v>2.1750004291534402</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.7970628738403298</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.7642741203308101</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.95200014114379805</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.25795698165893</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2.1500115394592201</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>1.5650000572204501</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.66400003433227495</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>1.5990121364593499</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1.18301033973693</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>4.81068515777587</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -18585,38 +18816,38 @@
       <c r="F16">
         <v>5.0009996891021702</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.3750145435333201</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.89498710632324</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1.45199918746948</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.3956775665283199</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5.0009896755218497</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.68499827384948697</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>1.37999892234802</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>0.84599971771240201</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>1.0880105495452801</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>5.0000236034393302</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -18635,38 +18866,38 @@
       <c r="F17">
         <v>5.0000085830688397</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.36699938774108</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.1800014972686701</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.5410120487213099</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5.0000040531158403</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5.0000021457672101</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.98900079727172796</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>0.65999984741210904</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>1.73400926589965</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.92900872230529696</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>5.00038290023803</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -18685,38 +18916,38 @@
       <c r="F18">
         <v>5.0009882450103698</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2.5549995899200399</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.32199931144714</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5.0000534057617099</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1.1029303073882999</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5.0000119209289497</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.83801198005676203</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>1.51299977302551</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>0.77701187133788996</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1.25499963760375</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>5.0000119209289497</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -18735,38 +18966,38 @@
       <c r="F19">
         <v>5.0000014305114702</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.6240029335021902</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.75099945068359</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5.0008301734924299</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>5.0000891685485804</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.0000014305114702</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>2.9019904136657702</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.41501116752624501</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>0.71199917793273904</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>5.0000123977661097</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>5.0009875297546298</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -18785,38 +19016,38 @@
       <c r="F20">
         <v>0.91599702835082997</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.83000087738037098</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.3629994392395</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.0949118137359601</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2.0065162181854199</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.87001085281372</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>2.8689095973968501</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.87199997901916504</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>1.32201147079467</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>1.3959875106811499</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>0.84299993515014604</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -18835,38 +19066,38 @@
       <c r="F21">
         <v>0.79499912261962802</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2.22300004959106</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.38670325279235</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.90002322196960405</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.4890003204345699</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1.5069983005523599</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>1.68299412727355</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>1.3190002441406199</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>1.82600021362304</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>1.9309992790222099</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>0.94701194763183505</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -18885,38 +19116,38 @@
       <c r="F22">
         <v>0.59301185607910101</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.5500013828277499</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.2899997234344398</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>2.5669963359832701</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.7650015354156401</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.98299908638000399</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>1.20899987220764</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.453999042510986</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>1.5379998683929399</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>1.57699990272521</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>0.63299989700317305</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -18935,38 +19166,38 @@
       <c r="F23">
         <v>0.45299816131591703</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.4520027637481601</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.65986108779907</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.75899863243103005</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1.2309994697570801</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1.6180007457733101</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>1.9050002098083401</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.77700185775756803</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>2.4889996051788299</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1.12499976158142</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>0.80299878120422297</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -18985,38 +19216,38 @@
       <c r="F24">
         <v>2.9850111007690399</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2.76599717140197</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3.8339991569518999</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>2.9815139770507799</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2.4190001487731898</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2.4389977455139098</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.65799832344055098</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.49299883842468201</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0.75999951362609797</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.43199944496154702</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>5.0000123977661097</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -19035,38 +19266,38 @@
       <c r="F25">
         <v>5.0009894371032697</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.98100185394287</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.6979999542236299</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.25299620628356</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.70099639892578103</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>5.0000009536743102</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>2.1950006484985298</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>1.92801189422607</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>1.3180117607116699</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.77299880981445301</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>5.0000078678131104</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -19085,38 +19316,38 @@
       <c r="F26">
         <v>5.0010001659393302</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>2.1440012454986501</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.2339997291564901</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>3.1979994773864702</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.0250008106231601</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5.0009968280792201</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>2.0699992179870601</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.46099948883056602</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>0.94900989532470703</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>0.22301292419433499</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>5.0000121593475297</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -19135,38 +19366,38 @@
       <c r="F27">
         <v>5.0000123977661097</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.6289987564086901</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.99601054191589</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.0764031410217201</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.01299977302551</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>5.0000114440917898</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.79414296150207497</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.252999067306518</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>0.98200058937072698</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>5.0000023841857901</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>5.0000083446502597</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -19185,38 +19416,38 @@
       <c r="F28">
         <v>5.0009965896606401</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.6959981918334901</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4.1060369014739901</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5.0005915164947501</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>5.0004689693450901</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>5.0009999275207502</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>1.6146254539489699</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.133012294769287</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>1.19599986076354</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>5.0009996891021702</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>5.0008134841918901</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -19235,38 +19466,38 @@
       <c r="F29">
         <v>1.10900259017944</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1.5489869117736801</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3.7130000591278001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1.66505146026611</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.71408319473266</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.5740096569061199</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>1.0819997787475499</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>2.2850081920623699</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>1.7610001564025799</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>1.36099600791931</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>1.17002773284912</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -19285,38 +19516,38 @@
       <c r="F30">
         <v>1.0250010490417401</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3.49299788475036</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.58600950241088801</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1.3859999179839999</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.71803665161132801</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.1709988117218</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>1.9141490459442101</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>3.79099988937377</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>0.60699963569641102</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>0.95300269126892001</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>1.0879993438720701</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -19335,38 +19566,38 @@
       <c r="F31">
         <v>0.338999032974243</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.97599744796752</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.3009884357452299</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3.4250013828277499</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>4.1749627590179399</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.0519993305206199</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>1.8028874397277801</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>1.0219879150390601</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>1.41100001335144</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>1.04801225662231</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>1.1250150203704801</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -19385,38 +19616,38 @@
       <c r="F32">
         <v>0.87699985504150302</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2.6430013179778999</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>3.7604682445526101</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1.96356701850891</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2.9170105457305899</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1.39300107955932</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>1.3712253570556601</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>2.5370125770568799</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>2.50601005554199</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>1.1520092487335201</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>0.98487615585327104</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -19435,38 +19666,38 @@
       <c r="F33">
         <v>4.00599861145019</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3.6699974536895699</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.72798657417297297</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>3.7380337715148899</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1.4800112247467001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2.7700011730193999</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>1.24017238616943</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>1.3689994812011701</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>0.43101239204406699</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>1.0029892921447701</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>5.0000438690185502</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -19485,38 +19716,38 @@
       <c r="F34">
         <v>5.0000002384185702</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.4470009803771899</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.6429986953735298</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1.77799272537231</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>3.0744242668151802</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>5.0009994506835902</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>0.62158823013305597</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>1.40201210975646</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>0.70698738098144498</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>0.52399992942810003</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>5.0000021457672101</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -19535,38 +19766,38 @@
       <c r="F35">
         <v>5.0000112056732098</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2.0330009460449201</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.1930019855499201</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2.1220183372497501</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5.0009999275207502</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5.0000014305114702</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>1.0930137634277299</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>1.81101202964782</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>1.4449992179870601</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>1.3959999084472601</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>5.0000119209289497</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -19585,38 +19816,38 @@
       <c r="F36">
         <v>5.0000007152557302</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>1.8329989910125699</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>1.58099913597106</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>4.1650354862213099</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2.0445771217346098</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>5.0000119209289497</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>1.4620101451873699</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>1.6139993667602499</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>2.9449999332427899</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>5.0009982585906902</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>5.0000061988830504</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -19635,38 +19866,38 @@
       <c r="F37">
         <v>5.0009994506835902</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>4.0149996280670104</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1.5669987201690601</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1.7073516845703101</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>5.0000650882720903</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5.0009865760803196</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.39798831939697199</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>0.54200100898742598</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>1.3950123786926201</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>5.0000114440917898</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>5.0009438991546604</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -19685,38 +19916,38 @@
       <c r="F38">
         <v>1.1450002193450901</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>2.16000008583068</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>1.69299817085266</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>3.6896617412567099</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>2.7391109466552699</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>1.66901159286499</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>1.1570119857787999</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>1.81200003623962</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>1.0280110836028999</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>0.93800234794616699</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>0.91707444190979004</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -19735,38 +19966,38 @@
       <c r="F39">
         <v>1.21000027656555</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2.8220028877258301</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.0392975807189901</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1.1690201759338299</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.99232101440429599</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>1.5882263183593699</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>2.8303670883178702</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>1.1700012683868399</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>2.6519989967346098</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>0.66001176834106401</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>0.74200105667114202</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -19785,38 +20016,38 @@
       <c r="F40">
         <v>0.834999799728393</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1.86200070381164</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.2775337696075399</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>2.7070021629333398</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>1.36100053787231</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>1.10280442237854</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>0.915000200271606</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>1.8389978408813401</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>1.66501212120056</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>0.64601206779479903</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>0.87201261520385698</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -19835,38 +20066,38 @@
       <c r="F41">
         <v>0.79199790954589799</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>2.23699855804443</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2.8899996280670099</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>1.7229969501495299</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>2.44600009918212</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>1.9420022964477499</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>2.4670121669769198</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>1.7650125026702801</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>1.1930115222930899</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>0.23300218582153301</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>0.93600010871887196</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -19885,38 +20116,38 @@
       <c r="F42">
         <v>4.71699786186218</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>2.1260101795196502</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2.7860014438629102</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>2.0930104255676198</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2.0719997882843</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>2.7070009708404501</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>2.0837111473083398</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>1.27400970458984</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>0.90000009536743097</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>1.37598729133605</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>5.0010011196136404</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -19935,38 +20166,38 @@
       <c r="F43">
         <v>5.0000009536743102</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>1.48700046539306</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2.8289997577667201</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>2.5636923313140798</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>1.75700163841247</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>5.0009999275207502</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>2.6629989147186199</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>0.694998979568481</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>1.12899994850158</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>0.32999968528747498</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>5.0009984970092702</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -19985,38 +20216,38 @@
       <c r="F44">
         <v>5.0008018016815097</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>2.5569999217986998</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>4.3099040985107404</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>2.03600001335144</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>5.0005118846893302</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>5.0009984970092702</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>0.70099854469299305</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>1.1670126914978001</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>1.7269976139068599</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>5.0000114440917898</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>5.0000109672546298</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -20035,38 +20266,38 @@
       <c r="F45">
         <v>5.0000016689300502</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>2.1159996986389098</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>2.18200182914733</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2.52503108978271</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>5.0000693798065097</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>5.0000021457672101</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>2.6290006637573198</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>1.41101145744323</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>0.766010522842407</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>5.0000007152557302</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <v>5.0009980201721103</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -20085,38 +20316,38 @@
       <c r="F46">
         <v>5.0000016689300502</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>2.0950002670288002</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>5.0009424686431796</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>5.0003035068511901</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>5.0000619888305602</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>5.0009829998016304</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>0.935999155044555</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>1.56000757217407</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>0.68500995635986295</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>5.0000088214874197</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>5.0000112056732098</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -20135,38 +20366,38 @@
       <c r="F47">
         <v>1.54999923706054</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>1.90299749374389</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1.8140113353729199</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>1.32713294029235</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>1.8826766014099099</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>1.2088932991027801</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>1.8959984779357899</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>1.4709894657135001</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>1.1050109863281199</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>0.84799766540527299</v>
       </c>
-      <c r="P47">
+      <c r="R47">
         <v>0.94698882102966297</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -20185,38 +20416,38 @@
       <c r="F48">
         <v>1.27299880981445</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>2.8560016155242902</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>3.16021656990051</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>2.1618611812591499</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>2.80528593063354</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>1.2870512008666899</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>0.49852752685546797</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>2.3699984550475999</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>1.18299937248229</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>2.4459996223449698</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <v>0.68199968338012695</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -20235,38 +20466,38 @@
       <c r="F49">
         <v>0.48399972915649397</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>3.1120007038116402</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2.9195261001586901</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1.5166697502136199</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>2.83398985862731</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>1.6819975376129099</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>2.3369989395141602</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>0.67601275444030695</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>0.61799836158752397</v>
       </c>
-      <c r="O49">
+      <c r="Q49">
         <v>1.23699951171875</v>
       </c>
-      <c r="P49">
+      <c r="R49">
         <v>0.89700198173522905</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -20285,38 +20516,38 @@
       <c r="F50">
         <v>0.89300131797790505</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.90899920463562001</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2.6842074394225999</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1.88751292228698</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>0.897999048233032</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>1.42800116539001</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>1.63158202171325</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>0.94599747657775801</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>1.98301076889038</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>1.75599932670593</v>
       </c>
-      <c r="P50">
+      <c r="R50">
         <v>0.85900020599365201</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -20335,38 +20566,38 @@
       <c r="F51">
         <v>5.0009992122650102</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>1.9350018501281701</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1.98318862915039</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>0.85156321525573697</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>1.59801197052001</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2.6440117359161301</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>2.71399974822998</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>2.1040122509002601</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>1.16001105308532</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>0.26899981498718201</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <v>5.0000007152557302</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -20385,38 +20616,38 @@
       <c r="F52">
         <v>5.0000021457672101</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>1.8829998970031701</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>1.75099968910217</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2.3992962837219198</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>1.9540092945098799</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>5.0000019073486301</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>1.3180944919586099</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>1.5900113582611</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>1.3459904193878101</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>5.0000288486480704</v>
       </c>
-      <c r="P52">
+      <c r="R52">
         <v>5.0000550746917698</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -20435,38 +20666,38 @@
       <c r="F53">
         <v>5.0000019073486301</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>1.9969997406005799</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1.6840019226074201</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>2.8460011482238698</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>5.0000326633453298</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>5.0000357627868599</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>1.3360123634338299</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>0.989998579025268</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>1.1920096874237001</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>5.0009891986846897</v>
       </c>
-      <c r="P53">
+      <c r="R53">
         <v>5.0000259876251203</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -20485,38 +20716,38 @@
       <c r="F54">
         <v>5.0000019073486301</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>5.0000019073486301</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>3.16400051116943</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>2.5680012702941801</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>5.0009982585906902</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>5.0000011920928902</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>1.25501155853271</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>2.0430121421813898</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>5.0000009536743102</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>5.0000128746032697</v>
       </c>
-      <c r="P54">
+      <c r="R54">
         <v>5.0000121593475297</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -20535,38 +20766,38 @@
       <c r="F55">
         <v>5.0002188682556099</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>5.0009996891021702</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.0000114440917898</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>5.0009994506835902</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>5.0004968643188397</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>5.0009996891021702</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>1.53877973556518</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>0.38901090621948198</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>5.0009877681732098</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>5.0009865760803196</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <v>5.0009882450103698</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -20585,38 +20816,38 @@
       <c r="F56">
         <v>1.0249998569488501</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>1.56199979782104</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>0.86600112915038996</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>2.2270007133483798</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>2.8960008621215798</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>2.6719992160797101</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>2.0939984321594198</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>2.1329996585845898</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>0.89101195335388095</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>1.1100001335144001</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <v>0.66200017929077104</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -20635,38 +20866,38 @@
       <c r="F57">
         <v>0.92100143432617099</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>2.26599740982055</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>3.9220013618469198</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0.78699755668640103</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1.66699838638305</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>1.7080020904541</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0.73599767684936501</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>1.3220121860504099</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>1.3459999561309799</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>1.5650000572204501</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <v>1.0430116653442301</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -20685,38 +20916,38 @@
       <c r="F58">
         <v>0.50799870491027799</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>1.4070026874542201</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>1.7910022735595701</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>1.7440114021301201</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>2.1440012454986501</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>1.54499983787536</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>1.4600126743316599</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>1.5710015296936</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>2.0560092926025302</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>1.03900122642517</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>0.87000203132629395</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -20735,38 +20966,38 @@
       <c r="F59">
         <v>0.51999902725219704</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>2.25400185585021</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>1.0729999542236299</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>1.4449877738952599</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>1.5499985218048</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>1.9729990959167401</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>0.69298768043518</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>0.94601225852966297</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>0.56999969482421797</v>
       </c>
-      <c r="O59">
+      <c r="Q59">
         <v>0.66199970245361295</v>
       </c>
-      <c r="P59">
+      <c r="R59">
         <v>0.96999955177307096</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -20785,38 +21016,38 @@
       <c r="F60">
         <v>5.0009980201721103</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>2.8500123023986799</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>1.8899996280670099</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>1.5410907268524101</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>0.77800011634826605</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>2.9509997367858798</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>2.6949892044067298</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>0.97199845314025801</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>0.28500008583068798</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>0.92501163482666005</v>
       </c>
-      <c r="P60">
+      <c r="R60">
         <v>5.0009860992431596</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -20835,38 +21066,38 @@
       <c r="F61">
         <v>5.0009970664978001</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>1.08900165557861</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>0.896001577377319</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1.24500012397766</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>2.17599892616271</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>5.0000014305114702</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>0.31002378463745101</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>0.38301157951354903</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <v>1.6410119533538801</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>5.0000126361846897</v>
       </c>
-      <c r="P61">
+      <c r="R61">
         <v>5.0000255107879603</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -20885,38 +21116,38 @@
       <c r="F62">
         <v>5.0009994506835902</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>3.7139892578125</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>2.9688739776611301</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1.31399846076965</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0.97000074386596602</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>5.0000011920928902</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>1.7272036075592001</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>1.71400070190429</v>
       </c>
-      <c r="N62">
+      <c r="P62">
         <v>3.0990109443664502</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>5.0009989738464302</v>
       </c>
-      <c r="P62">
+      <c r="R62">
         <v>5.0000934600829998</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -20935,38 +21166,38 @@
       <c r="F63">
         <v>5.0000011920928902</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>1.9440019130706701</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>2.2519998550414999</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1.9263494014739899</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>5.0010004043579102</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>5.0000004768371502</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>1.8509888648986801</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>1.29301309585571</v>
       </c>
-      <c r="N63">
+      <c r="P63">
         <v>0.96898913383483798</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>5.0010018348693803</v>
       </c>
-      <c r="P63">
+      <c r="R63">
         <v>5.0000462532043404</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -20985,38 +21216,38 @@
       <c r="F64">
         <v>5.0009965896606401</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.494999408721923</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>2.3900346755981401</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>5.0005829334258998</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>5.0005846023559499</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>5.0000119209289497</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>0.85600042343139604</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>5.0009894371032697</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <v>5.0009992122650102</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>5.0000004768371502</v>
       </c>
-      <c r="P64">
+      <c r="R64">
         <v>5.0009999275207502</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -21035,38 +21266,38 @@
       <c r="F65">
         <v>1.9600021839141799</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>2.6790063381195002</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>1.10400962829589</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1.1460111141204801</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1.80103206634521</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>1.1539995670318599</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>1.58299732208251</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>2.0399997234344398</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <v>1.9980108737945499</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>1.18601274490356</v>
       </c>
-      <c r="P65">
+      <c r="R65">
         <v>0.878001928329467</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -21085,38 +21316,38 @@
       <c r="F66">
         <v>0.67199850082397405</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>3.24898982048034</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>2.0030539035797101</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>2.7810928821563698</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>1.7919991016387899</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>1.5560927391052199</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>1.1439983844757</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>1.6589996814727701</v>
       </c>
-      <c r="N66">
+      <c r="P66">
         <v>0.63901162147521895</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>1.9619987010955799</v>
       </c>
-      <c r="P66">
+      <c r="R66">
         <v>0.853010654449462</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -21135,38 +21366,38 @@
       <c r="F67">
         <v>0.68099927902221602</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>3.0269973278045601</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>2.21801280975341</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>2.5129990577697701</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>1.3799991607666</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>1.5420000553131099</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>1.8979978561401301</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>1.0360023975372299</v>
       </c>
-      <c r="N67">
+      <c r="P67">
         <v>0.79800033569335904</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>1.22099757194519</v>
       </c>
-      <c r="P67">
+      <c r="R67">
         <v>0.71099901199340798</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -21185,38 +21416,38 @@
       <c r="F68">
         <v>0.61200046539306596</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>1.99800133705139</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.92501306533813399</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>2.8030002117156898</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>2.6090002059936501</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>1.44700002670288</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>2.6789956092834402</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>2.9759972095489502</v>
       </c>
-      <c r="N68">
+      <c r="P68">
         <v>1.37499976158142</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>1.19299817085266</v>
       </c>
-      <c r="P68">
+      <c r="R68">
         <v>0.8489990234375</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -21235,38 +21466,38 @@
       <c r="F69">
         <v>5.0000033378601003</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>2.0489978790283199</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>1.1030259132385201</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1.75401258468627</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>1.8960144519805899</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>2.9820094108581499</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>0.61399841308593694</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>1.1980013847351001</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>1.44399833679199</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>1.39700055122375</v>
       </c>
-      <c r="P69">
+      <c r="R69">
         <v>5.0000035762786803</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -21285,38 +21516,38 @@
       <c r="F70">
         <v>5.00099754333496</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>2.07199835777282</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>2.9459996223449698</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>2.5451743602752601</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>5.0009999275207502</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>5.0009891986846897</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>2.7139995098114</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>0.40599942207336398</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>1.75801181793212</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>5.0000002384185702</v>
       </c>
-      <c r="P70">
+      <c r="R70">
         <v>5.0009994506835902</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -21335,38 +21566,38 @@
       <c r="F71">
         <v>5.0010020732879603</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1.8830120563507</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>3.8539955615997301</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>1.45888423919677</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>5.0000090599059996</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>5.0005564689636204</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>2.33800148963928</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>0.75900077819824197</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <v>3.2419915199279701</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>5.0000004768371502</v>
       </c>
-      <c r="P71">
+      <c r="R71">
         <v>5.0009999275207502</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -21385,38 +21616,38 @@
       <c r="F72">
         <v>5.0000014305114702</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>5.0009868144988996</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>2.4282653331756499</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>5.0002808570861799</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>5.0000014305114702</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>5.0009984970092702</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>0.28200244903564398</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>0.9399995803833</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <v>5.0009956359863201</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>5.0000002384185702</v>
       </c>
-      <c r="P72">
+      <c r="R72">
         <v>5.0000157356262198</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -21435,38 +21666,38 @@
       <c r="F73">
         <v>5.0000014305114702</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1.78400158882141</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>5.0002522468566797</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>5.0004913806915203</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>5.0000002384185702</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>5.0009956359863201</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>2.197998046875</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>5.0009999275207502</v>
       </c>
-      <c r="N73">
+      <c r="P73">
         <v>5.0000123977661097</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>5.0009987354278502</v>
       </c>
-      <c r="P73">
+      <c r="R73">
         <v>5.0005853176116899</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -21485,38 +21716,38 @@
       <c r="F74">
         <v>1.4170012474060001</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>2.6859993934631299</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>2.9426484107971098</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1.9325132369995099</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>1.90500140190124</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>1.0429995059967001</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>0.86801028251647905</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>0.44899916648864702</v>
       </c>
-      <c r="N74">
+      <c r="P74">
         <v>1.6500098705291699</v>
       </c>
-      <c r="O74">
+      <c r="Q74">
         <v>1.3940002918243399</v>
       </c>
-      <c r="P74">
+      <c r="R74">
         <v>0.91999816894531194</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -21535,38 +21766,38 @@
       <c r="F75">
         <v>0.76399827003479004</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>2.6890022754669101</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>3.1550004482269198</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>2.23501348495483</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1.7510001659393299</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>1.7399985790252599</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>2.8880119323730402</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>1.7130000591278001</v>
       </c>
-      <c r="N75">
+      <c r="P75">
         <v>1.1189992427825901</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>1.01701211929321</v>
       </c>
-      <c r="P75">
+      <c r="R75">
         <v>0.91801023483276301</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -21585,38 +21816,38 @@
       <c r="F76">
         <v>0.51300168037414495</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>2.3499999046325599</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>2.84700179100036</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>2.5779972076415998</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>2.2179977893829301</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>1.64067077636718</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>2.31298780441284</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>1.53099966049194</v>
       </c>
-      <c r="N76">
+      <c r="P76">
         <v>1.4469883441925</v>
       </c>
-      <c r="O76">
+      <c r="Q76">
         <v>1.0020000934600799</v>
       </c>
-      <c r="P76">
+      <c r="R76">
         <v>0.87500119209289495</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -21635,38 +21866,38 @@
       <c r="F77">
         <v>0.89600133895874001</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1.29799675941467</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>3.0425109863281201</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>3.3260123729705802</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>1.14801025390625</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>2.4410014152526802</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>1.00400042533874</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>2.43399977684021</v>
       </c>
-      <c r="N77">
+      <c r="P77">
         <v>1.7700126171112001</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>0.58699750900268499</v>
       </c>
-      <c r="P77">
+      <c r="R77">
         <v>0.91399979591369596</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -21685,38 +21916,38 @@
       <c r="F78">
         <v>5.0000004768371502</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.99099922180175704</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>1.58334136009216</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>1.3689897060394201</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>1.2690665721893299</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>2.7869989871978702</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>0.39500069618225098</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>2.47299981117248</v>
       </c>
-      <c r="N78">
+      <c r="P78">
         <v>1.63401007652282</v>
       </c>
-      <c r="O78">
+      <c r="Q78">
         <v>1.4329979419708201</v>
       </c>
-      <c r="P78">
+      <c r="R78">
         <v>5.0000085830688397</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -21735,38 +21966,38 @@
       <c r="F79">
         <v>5.0000016689300502</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.82300043106079102</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>2.5783603191375701</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>5.0000004768371502</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>1.5920000076293901</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>5.0000123977661097</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>0.58099770545959395</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>1.52000927925109</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <v>3.0569994449615399</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>5.0000116825103698</v>
       </c>
-      <c r="P79">
+      <c r="R79">
         <v>5.0000019073486301</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -21785,38 +22016,38 @@
       <c r="F80">
         <v>5.0009992122650102</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>2.50600242614746</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>2.1280000209808301</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>1.8109986782073899</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>5.0000765323638898</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>5.0006775856018004</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>2.53388094902038</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>2.1390120983123699</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>2.5099971294403001</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>5.0009891986846897</v>
       </c>
-      <c r="P80">
+      <c r="R80">
         <v>5.0000119209289497</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -21835,38 +22066,38 @@
       <c r="F81">
         <v>5.0000004768371502</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>3.6089994907379102</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>5.0000119209289497</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>5.0009996891021702</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>5.0009980201721103</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>5.0000104904174796</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>2.1710240840911799</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>2.2590022087097101</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <v>1.9870123863220199</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>5.0000021457672101</v>
       </c>
-      <c r="P81">
+      <c r="R81">
         <v>5.00099778175354</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -21885,44 +22116,44 @@
       <c r="F82">
         <v>5.0009980201721103</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>3.7959988117218</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>5.0008602142333896</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>5.0009999275207502</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>5.0000002384185702</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>5.0009915828704798</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>1.2120001316070499</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>5.0009894371032697</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>5.0009961128234801</v>
       </c>
-      <c r="O82">
+      <c r="Q82">
         <v>5.0000002384185702</v>
       </c>
-      <c r="P82">
+      <c r="R82">
         <v>5.0000102519988996</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:18">
       <c r="B84">
         <f>AVERAGE(B2:B82)</f>
         <v>2.3817038712678107</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:P84" si="0">AVERAGE(C2:C82)</f>
+        <f t="shared" ref="C84:R84" si="0">AVERAGE(C2:C82)</f>
         <v>2.9128475895634387</v>
       </c>
       <c r="D84">
@@ -21937,55 +22168,55 @@
         <f t="shared" si="0"/>
         <v>3.0232101811303016</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <f t="shared" si="0"/>
         <v>2.2872635140831061</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <f t="shared" si="0"/>
         <v>2.3131432356657782</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <f t="shared" si="0"/>
         <v>2.4887387369885827</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <f t="shared" si="0"/>
         <v>2.6673400902453741</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <f t="shared" si="0"/>
         <v>3.1893638004491338</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <f t="shared" si="0"/>
         <v>1.6009912696885442</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <f t="shared" si="0"/>
         <v>1.4817685609982305</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <f t="shared" si="0"/>
         <v>1.6672626012637264</v>
       </c>
-      <c r="O84">
+      <c r="Q84">
         <f t="shared" si="0"/>
         <v>2.2757309483893104</v>
       </c>
-      <c r="P84">
+      <c r="R84">
         <f t="shared" si="0"/>
         <v>3.1038680547549387</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:P1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="B1:R1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:P84">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B84:R84">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26171,7 +26402,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:P1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
